--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl11-Ccr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl11-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Ccr3</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,247 +528,1115 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.369946853309931</v>
+        <v>0.4541726666666667</v>
       </c>
       <c r="H2">
-        <v>0.369946853309931</v>
+        <v>1.362518</v>
       </c>
       <c r="I2">
-        <v>0.004480245833754927</v>
+        <v>0.005326894406580251</v>
       </c>
       <c r="J2">
-        <v>0.004480245833754927</v>
+        <v>0.00532689440658025</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.910418709603816</v>
+        <v>0.1029326666666667</v>
       </c>
       <c r="N2">
-        <v>0.910418709603816</v>
+        <v>0.308798</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.0757654494554323</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.07576544945543232</v>
       </c>
       <c r="Q2">
-        <v>0.3368065368124196</v>
+        <v>0.04674920370711112</v>
       </c>
       <c r="R2">
-        <v>0.3368065368124196</v>
+        <v>0.420742833364</v>
       </c>
       <c r="S2">
-        <v>0.004480245833754927</v>
+        <v>0.000403594548916181</v>
       </c>
       <c r="T2">
-        <v>0.004480245833754927</v>
+        <v>0.000403594548916181</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>75.8774527970927</v>
+        <v>0.4541726666666667</v>
       </c>
       <c r="H3">
-        <v>75.8774527970927</v>
+        <v>1.362518</v>
       </c>
       <c r="I3">
-        <v>0.9189148082449307</v>
+        <v>0.005326894406580251</v>
       </c>
       <c r="J3">
-        <v>0.9189148082449307</v>
+        <v>0.00532689440658025</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.910418709603816</v>
+        <v>0.24544</v>
       </c>
       <c r="N3">
-        <v>0.910418709603816</v>
+        <v>0.73632</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1806605474874316</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1806605474874316</v>
       </c>
       <c r="Q3">
-        <v>69.08025266355359</v>
+        <v>0.1114721393066667</v>
       </c>
       <c r="R3">
-        <v>69.08025266355359</v>
+        <v>1.00324925376</v>
       </c>
       <c r="S3">
-        <v>0.9189148082449307</v>
+        <v>0.0009623596599005254</v>
       </c>
       <c r="T3">
-        <v>0.9189148082449307</v>
+        <v>0.0009623596599005252</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.937972574872989</v>
+        <v>0.4541726666666667</v>
       </c>
       <c r="H4">
-        <v>0.937972574872989</v>
+        <v>1.362518</v>
       </c>
       <c r="I4">
-        <v>0.01135932819309719</v>
+        <v>0.005326894406580251</v>
       </c>
       <c r="J4">
-        <v>0.01135932819309719</v>
+        <v>0.00532689440658025</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.910418709603816</v>
+        <v>1.010197333333333</v>
       </c>
       <c r="N4">
-        <v>0.910418709603816</v>
+        <v>3.030592</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.7435740030571361</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.7435740030571361</v>
       </c>
       <c r="Q4">
-        <v>0.8539477812596353</v>
+        <v>0.4588040167395556</v>
       </c>
       <c r="R4">
-        <v>0.8539477812596353</v>
+        <v>4.129236150656</v>
       </c>
       <c r="S4">
-        <v>0.01135932819309719</v>
+        <v>0.003960940197763545</v>
       </c>
       <c r="T4">
-        <v>0.01135932819309719</v>
+        <v>0.003960940197763544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>76.49331166666667</v>
+      </c>
+      <c r="H5">
+        <v>229.479935</v>
+      </c>
+      <c r="I5">
+        <v>0.8971737490248932</v>
+      </c>
+      <c r="J5">
+        <v>0.8971737490248931</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.308798</v>
+      </c>
+      <c r="O5">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P5">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q5">
+        <v>7.873660552014445</v>
+      </c>
+      <c r="R5">
+        <v>70.86294496813001</v>
+      </c>
+      <c r="S5">
+        <v>0.06797477233448625</v>
+      </c>
+      <c r="T5">
+        <v>0.06797477233448626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>76.49331166666667</v>
+      </c>
+      <c r="H6">
+        <v>229.479935</v>
+      </c>
+      <c r="I6">
+        <v>0.8971737490248932</v>
+      </c>
+      <c r="J6">
+        <v>0.8971737490248931</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.24544</v>
+      </c>
+      <c r="N6">
+        <v>0.73632</v>
+      </c>
+      <c r="O6">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P6">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q6">
+        <v>18.77451841546667</v>
+      </c>
+      <c r="R6">
+        <v>168.9706657392</v>
+      </c>
+      <c r="S6">
+        <v>0.1620839006901888</v>
+      </c>
+      <c r="T6">
+        <v>0.1620839006901888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>76.49331166666667</v>
+      </c>
+      <c r="H7">
+        <v>229.479935</v>
+      </c>
+      <c r="I7">
+        <v>0.8971737490248932</v>
+      </c>
+      <c r="J7">
+        <v>0.8971737490248931</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.030592</v>
+      </c>
+      <c r="O7">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P7">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q7">
+        <v>77.27333946350223</v>
+      </c>
+      <c r="R7">
+        <v>695.46005517152</v>
+      </c>
+      <c r="S7">
+        <v>0.6671150760002181</v>
+      </c>
+      <c r="T7">
+        <v>0.6671150760002181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.292554666666667</v>
+      </c>
+      <c r="H8">
+        <v>3.877664</v>
+      </c>
+      <c r="I8">
+        <v>0.01516009819481108</v>
+      </c>
+      <c r="J8">
+        <v>0.01516009819481108</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.308798</v>
+      </c>
+      <c r="O8">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P8">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q8">
+        <v>0.1330460986524445</v>
+      </c>
+      <c r="R8">
+        <v>1.197414887872</v>
+      </c>
+      <c r="S8">
+        <v>0.001148611653518349</v>
+      </c>
+      <c r="T8">
+        <v>0.001148611653518349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.292554666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.877664</v>
+      </c>
+      <c r="I9">
+        <v>0.01516009819481108</v>
+      </c>
+      <c r="J9">
+        <v>0.01516009819481108</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.24544</v>
+      </c>
+      <c r="N9">
+        <v>0.73632</v>
+      </c>
+      <c r="O9">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P9">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q9">
+        <v>0.3172446173866666</v>
+      </c>
+      <c r="R9">
+        <v>2.85520155648</v>
+      </c>
+      <c r="S9">
+        <v>0.002738831639837794</v>
+      </c>
+      <c r="T9">
+        <v>0.002738831639837793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.292554666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.877664</v>
+      </c>
+      <c r="I10">
+        <v>0.01516009819481108</v>
+      </c>
+      <c r="J10">
+        <v>0.01516009819481108</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.030592</v>
+      </c>
+      <c r="O10">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P10">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q10">
+        <v>1.305735277454222</v>
+      </c>
+      <c r="R10">
+        <v>11.751617497088</v>
+      </c>
+      <c r="S10">
+        <v>0.01127265490145494</v>
+      </c>
+      <c r="T10">
+        <v>0.01127265490145493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.9628836666666668</v>
+      </c>
+      <c r="H11">
+        <v>2.888651</v>
+      </c>
+      <c r="I11">
+        <v>0.01129345730072003</v>
+      </c>
+      <c r="J11">
+        <v>0.01129345730072002</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.308798</v>
+      </c>
+      <c r="O11">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P11">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q11">
+        <v>0.0991121834997778</v>
+      </c>
+      <c r="R11">
+        <v>0.8920096514980002</v>
+      </c>
+      <c r="S11">
+        <v>0.0008556538682947861</v>
+      </c>
+      <c r="T11">
+        <v>0.000855653868294786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.9628836666666668</v>
+      </c>
+      <c r="H12">
+        <v>2.888651</v>
+      </c>
+      <c r="I12">
+        <v>0.01129345730072003</v>
+      </c>
+      <c r="J12">
+        <v>0.01129345730072002</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.24544</v>
+      </c>
+      <c r="N12">
+        <v>0.73632</v>
+      </c>
+      <c r="O12">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P12">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q12">
+        <v>0.2363301671466667</v>
+      </c>
+      <c r="R12">
+        <v>2.12697150432</v>
+      </c>
+      <c r="S12">
+        <v>0.002040282178974012</v>
+      </c>
+      <c r="T12">
+        <v>0.002040282178974011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.9628836666666668</v>
+      </c>
+      <c r="H13">
+        <v>2.888651</v>
+      </c>
+      <c r="I13">
+        <v>0.01129345730072003</v>
+      </c>
+      <c r="J13">
+        <v>0.01129345730072002</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.030592</v>
+      </c>
+      <c r="O13">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P13">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q13">
+        <v>0.9727025123768891</v>
+      </c>
+      <c r="R13">
+        <v>8.754322611392</v>
+      </c>
+      <c r="S13">
+        <v>0.008397521253451229</v>
+      </c>
+      <c r="T13">
+        <v>0.008397521253451227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.2778016666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.833405</v>
+      </c>
+      <c r="I14">
+        <v>0.003258276538670325</v>
+      </c>
+      <c r="J14">
+        <v>0.003258276538670324</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.308798</v>
+      </c>
+      <c r="O14">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P14">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q14">
+        <v>0.02859486635444445</v>
+      </c>
+      <c r="R14">
+        <v>0.25735379719</v>
+      </c>
+      <c r="S14">
+        <v>0.0002468647864024474</v>
+      </c>
+      <c r="T14">
+        <v>0.0002468647864024474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.2778016666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.833405</v>
+      </c>
+      <c r="I15">
+        <v>0.003258276538670325</v>
+      </c>
+      <c r="J15">
+        <v>0.003258276538670324</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.24544</v>
+      </c>
+      <c r="N15">
+        <v>0.73632</v>
+      </c>
+      <c r="O15">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P15">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q15">
+        <v>0.06818364106666666</v>
+      </c>
+      <c r="R15">
+        <v>0.6136527695999999</v>
+      </c>
+      <c r="S15">
+        <v>0.0005886420233416346</v>
+      </c>
+      <c r="T15">
+        <v>0.0005886420233416344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.2778016666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.833405</v>
+      </c>
+      <c r="I16">
+        <v>0.003258276538670325</v>
+      </c>
+      <c r="J16">
+        <v>0.003258276538670324</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N16">
+        <v>3.030592</v>
+      </c>
+      <c r="O16">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P16">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q16">
+        <v>0.2806345028622222</v>
+      </c>
+      <c r="R16">
+        <v>2.52571052576</v>
+      </c>
+      <c r="S16">
+        <v>0.002422769728926243</v>
+      </c>
+      <c r="T16">
+        <v>0.002422769728926242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>5.38751931623066</v>
-      </c>
-      <c r="H5">
-        <v>5.38751931623066</v>
-      </c>
-      <c r="I5">
-        <v>0.06524561772821721</v>
-      </c>
-      <c r="J5">
-        <v>0.06524561772821721</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.910418709603816</v>
-      </c>
-      <c r="N5">
-        <v>0.910418709603816</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>4.90489838384835</v>
-      </c>
-      <c r="R5">
-        <v>4.90489838384835</v>
-      </c>
-      <c r="S5">
-        <v>0.06524561772821721</v>
-      </c>
-      <c r="T5">
-        <v>0.06524561772821721</v>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.779585333333333</v>
+      </c>
+      <c r="H17">
+        <v>17.338756</v>
+      </c>
+      <c r="I17">
+        <v>0.06778752453432524</v>
+      </c>
+      <c r="J17">
+        <v>0.06778752453432522</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.308798</v>
+      </c>
+      <c r="O17">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P17">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q17">
+        <v>0.5949081305875555</v>
+      </c>
+      <c r="R17">
+        <v>5.354173175288</v>
+      </c>
+      <c r="S17">
+        <v>0.005135952263814296</v>
+      </c>
+      <c r="T17">
+        <v>0.005135952263814296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.779585333333333</v>
+      </c>
+      <c r="H18">
+        <v>17.338756</v>
+      </c>
+      <c r="I18">
+        <v>0.06778752453432524</v>
+      </c>
+      <c r="J18">
+        <v>0.06778752453432522</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.24544</v>
+      </c>
+      <c r="N18">
+        <v>0.73632</v>
+      </c>
+      <c r="O18">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P18">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q18">
+        <v>1.418541424213333</v>
+      </c>
+      <c r="R18">
+        <v>12.76687281792</v>
+      </c>
+      <c r="S18">
+        <v>0.0122465312951889</v>
+      </c>
+      <c r="T18">
+        <v>0.0122465312951889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.779585333333333</v>
+      </c>
+      <c r="H19">
+        <v>17.338756</v>
+      </c>
+      <c r="I19">
+        <v>0.06778752453432524</v>
+      </c>
+      <c r="J19">
+        <v>0.06778752453432522</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N19">
+        <v>3.030592</v>
+      </c>
+      <c r="O19">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P19">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q19">
+        <v>5.838521691505778</v>
+      </c>
+      <c r="R19">
+        <v>52.546695223552</v>
+      </c>
+      <c r="S19">
+        <v>0.05040504097532204</v>
+      </c>
+      <c r="T19">
+        <v>0.05040504097532203</v>
       </c>
     </row>
   </sheetData>
